--- a/biology/Histoire de la zoologie et de la botanique/Museo_civico_di_storia_naturale_de_Gênes/Museo_civico_di_storia_naturale_de_Gênes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Museo_civico_di_storia_naturale_de_Gênes/Museo_civico_di_storia_naturale_de_Gênes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Museo_civico_di_storia_naturale_de_G%C3%AAnes</t>
+          <t>Museo_civico_di_storia_naturale_de_Gênes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée public d’histoire naturelle Giacomo Doria de Gênes (Museo civico di storia naturale Giacomo Doria en italien) a ouvert ses portes le 24 avril 1867.
 Les collections comptent 3 800 000 objets. Une vingtaine de salles sont ouvertes au public. Le muséum publie des Annals et le magazine Doriana. Depuis 1922, le muséum héberge la Société entomologique d’Italie (fondée en 1869).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Museo_civico_di_storia_naturale_de_G%C3%AAnes</t>
+          <t>Museo_civico_di_storia_naturale_de_Gênes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée public d’histoire naturelle Giacomo Doria a ouvert ses portes le 24 avril 1867 sur approbation par le conseil de la ville du projet présenté par le marquis Giacomo Doria (1840-1913). Celui-ci dirige alors l’établissement durant quarante ans. Le muséum est d’abord installé dans la villa du marquis Giovanni Carlo Di Negro (1769-1857), botaniste. La ville rachète cet immeuble pour l’aménager et permettre l’accès du public.
 Les premières collections exposées sont celles de Giacomo Doria lui-même, notamment celles qu'il avait rassemblées lors de son voyage en Perse (en 1862) et à Bornéo (en 1865), durant lequel il était accompagné par le botaniste Odoardo Beccari (1843-1920). Deux autres collections sont reçues par la municipalité : la première est celle rassemblée par le géologue et paléontologue, le marquis Lorenzo Pareto (1800-1865) ; la seconde est la collection de coquillages du prince Odon de Savoie (1846-1866).
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Museo_civico_di_storia_naturale_de_G%C3%AAnes</t>
+          <t>Museo_civico_di_storia_naturale_de_Gênes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Liste des directeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1867 : Giacomo Doria (1840-1913)
 1913 : Raffaello Gestro (1856-1936)
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Museo_civico_di_storia_naturale_de_G%C3%AAnes</t>
+          <t>Museo_civico_di_storia_naturale_de_Gênes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(it + en) Court historique</t>
         </is>
